--- a/medicine/Handicap/Dextrocardie/Dextrocardie.xlsx
+++ b/medicine/Handicap/Dextrocardie/Dextrocardie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dextrocardie est une malformation de naissance dans laquelle le cœur se trouve dans la moitié droite du thorax. La pointe du cœur est aussi orientée à droite.
 On trouve trois cas de figure :
@@ -515,9 +527,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première publication de l'ère moderne en parlant date de 1788[1], mais d'autres cas ont été décrits au XVIIe siècle[2], dont par Girolamo Fabrizi d'Acquapendente[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première publication de l'ère moderne en parlant date de 1788, mais d'autres cas ont été décrits au XVIIe siècle, dont par Girolamo Fabrizi d'Acquapendente.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette malformation est retrouvée dans 0,01 % des naissances vivantes[4]. Une étude japonaise analysant 1753 échographies de fœtus sur une période de cinq ans n'a découvert que deux cas[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette malformation est retrouvée dans 0,01 % des naissances vivantes. Une étude japonaise analysant 1753 échographies de fœtus sur une période de cinq ans n'a découvert que deux cas.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anomalie peut être découverte lors d'un examen systématique, clinique ou radiologique, ou motivée par la présence d'autres malformations.
 </t>
